--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1197 units</t>
+          <t>1228 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -484,16 +484,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,16 +764,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.58958745302727</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>27.93706705991934</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.84770430255023</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>27.923038309508</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21.62954370525714</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>31.02339659188045</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>144.4444444444444</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>120</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.761904761904762</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.90190550631969</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>33.79666503255313</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>23</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166.6666666666667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>118.1818181818182</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>50</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.8325152720967</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>33.44240750351195</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>22</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>155.5555555555556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>130</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.88346599472892</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>31.32407024967304</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>22</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>144.4444444444444</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25.20365874367394</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>34.06963853798834</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>22</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>177.7777777777778</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>150</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31.75885972438768</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>41.80165885995883</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>22</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>300</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>220</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>128.5714285714286</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35.2581385815849</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>44.53286825173027</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>21</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>250</v>
+      </c>
+      <c r="L10" t="n">
+        <v>21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>150</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30.44204445546888</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>39.77720696711814</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>20</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>275</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>233.3333333333333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>130.7692307692308</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.07317089074883</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>27.96794833381522</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>20</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>111.1111111111111</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.066602403760832</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>18.95003446338294</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>22</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-35.71428571428572</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-59.09090909090909</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.402229729341411</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>16.46602081750913</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>21</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-22.22222222222222</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-46.15384615384615</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.88420228571032</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>24.00967261747686</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>20</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-30</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A16" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.77286314066092</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>31.92039740460537</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>20</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>175</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>144.4444444444444</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="A17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24.29667075209945</v>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>33.57607193923845</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" t="n">
+        <v>242.8571428571428</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>344</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -526,13 +526,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>17.58958745302727</v>
+        <v>16.60080685631182</v>
       </c>
       <c r="C2" t="n">
-        <v>27.93706705991934</v>
+        <v>25.8797274309296</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -547,28 +547,28 @@
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.28571428571428</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>17.84770430255023</v>
+        <v>18.90194656637437</v>
       </c>
       <c r="C3" t="n">
-        <v>27.923038309508</v>
+        <v>28.69780311508971</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -615,28 +615,28 @@
         <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>63.63636363636363</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O3" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -662,13 +662,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>21.62954370525714</v>
+        <v>24.41340968098703</v>
       </c>
       <c r="C4" t="n">
-        <v>31.02339659188045</v>
+        <v>34.43849345566904</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -683,28 +683,28 @@
         <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>144.4444444444444</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>57.14285714285714</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>23.90190550631969</v>
+        <v>26.87460755284985</v>
       </c>
       <c r="C5" t="n">
-        <v>33.79666503255313</v>
+        <v>37.08502681618409</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -751,28 +751,28 @@
         <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>166.6666666666667</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>118.1818181818182</v>
+        <v>145.4545454545455</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>68.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>4.347826086956522</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8325152720967</v>
+        <v>24.31015336011086</v>
       </c>
       <c r="C6" t="n">
-        <v>33.44240750351195</v>
+        <v>33.39398262926652</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -819,28 +819,28 @@
         <v>22</v>
       </c>
       <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>166.6666666666667</v>
+      </c>
+      <c r="J6" t="n">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
-        <v>155.5555555555556</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13</v>
-      </c>
       <c r="K6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>64.28571428571429</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>4.545454545454546</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>21.88346599472892</v>
+        <v>21.22554554588621</v>
       </c>
       <c r="C7" t="n">
-        <v>31.32407024967304</v>
+        <v>30.63078634429186</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -887,28 +887,28 @@
         <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>144.4444444444444</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>46.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -934,13 +934,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>25.20365874367394</v>
+        <v>23.06957334834464</v>
       </c>
       <c r="C8" t="n">
-        <v>34.06963853798834</v>
+        <v>33.27908551529985</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -955,28 +955,28 @@
         <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>177.7777777777778</v>
+        <v>155.5555555555556</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>66.66666666666666</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>13.63636363636363</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>31.75885972438768</v>
+        <v>29.35319641170648</v>
       </c>
       <c r="C9" t="n">
-        <v>41.80165885995883</v>
+        <v>38.90954502021761</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -1023,28 +1023,28 @@
         <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>300</v>
+        <v>262.5</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>128.5714285714286</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>45.45454545454545</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>35.2581385815849</v>
+        <v>33.40417404612117</v>
       </c>
       <c r="C10" t="n">
-        <v>44.53286825173027</v>
+        <v>43.26193509032495</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -1091,28 +1091,28 @@
         <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>337.5</v>
+        <v>312.5</v>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>135.7142857142857</v>
       </c>
       <c r="N10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>66.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>30.44204445546888</v>
+        <v>29.27953872246014</v>
       </c>
       <c r="C11" t="n">
-        <v>39.77720696711814</v>
+        <v>39.58278524563011</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -1159,28 +1159,28 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>275</v>
+        <v>262.5</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>233.3333333333333</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="L11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>130.7692307692308</v>
+        <v>123.0769230769231</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>19.07317089074883</v>
+        <v>18.37436246403128</v>
       </c>
       <c r="C12" t="n">
-        <v>27.96794833381522</v>
+        <v>27.72838918635125</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -1227,28 +1227,28 @@
         <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>137.5</v>
+        <v>125</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>111.1111111111111</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>46.15384615384615</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="N12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O12" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1277,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>9.066602403760832</v>
+        <v>8.594117012138502</v>
       </c>
       <c r="C13" t="n">
-        <v>18.95003446338294</v>
+        <v>18.77220979788035</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1345,10 +1345,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>7.402229729341411</v>
+        <v>6.951860750038978</v>
       </c>
       <c r="C14" t="n">
-        <v>16.46602081750913</v>
+        <v>16.7911872618445</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.88420228571032</v>
+        <v>13.20836629419417</v>
       </c>
       <c r="C15" t="n">
-        <v>24.00967261747686</v>
+        <v>22.40168712499321</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -1431,28 +1431,28 @@
         <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>55.55555555555556</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="O15" t="n">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>21.77286314066092</v>
+        <v>20.69562494327013</v>
       </c>
       <c r="C16" t="n">
-        <v>31.92039740460537</v>
+        <v>30.72208465682079</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -1499,28 +1499,28 @@
         <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>175</v>
+        <v>162.5</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>144.4444444444444</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>69.23076923076923</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>24.29667075209945</v>
+        <v>22.93036014524568</v>
       </c>
       <c r="C17" t="n">
-        <v>33.57607193923845</v>
+        <v>33.16855677728883</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -1567,28 +1567,28 @@
         <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>242.8571428571428</v>
+        <v>228.5714285714286</v>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>187.5</v>
       </c>
       <c r="L17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>26.31578947368421</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>337</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
-        <v>11</v>
-      </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
         <v>11</v>
       </c>
-      <c r="F7" t="n">
-        <v>15</v>
-      </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="n">
-        <v>13</v>
-      </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-01</t>
+          <t>2022-12-25 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1205 units</t>
+          <t>1197 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.5</v>
+        <v>10.8</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>11.6</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>12.2</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.5</v>
+        <v>11.8</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -475,13 +475,11 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -495,13 +493,11 @@
       <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -510,13 +506,11 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -530,13 +524,11 @@
       <c r="G3" t="n">
         <v>17</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -545,13 +537,11 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -565,13 +555,11 @@
       <c r="G4" t="n">
         <v>17</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -580,13 +568,11 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
-        <v>9.1</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -600,13 +586,11 @@
       <c r="G5" t="n">
         <v>16</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -615,13 +599,11 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -635,13 +617,11 @@
       <c r="G6" t="n">
         <v>15</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -650,13 +630,11 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -670,13 +648,11 @@
       <c r="G7" t="n">
         <v>16</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -685,13 +661,11 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -705,13 +679,11 @@
       <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -720,13 +692,11 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>10.8</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -740,13 +710,11 @@
       <c r="G9" t="n">
         <v>17</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -755,13 +723,11 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>11.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -775,13 +741,11 @@
       <c r="G10" t="n">
         <v>16</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -790,13 +754,11 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>12.2</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -810,13 +772,11 @@
       <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -825,13 +785,11 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>11.8</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -845,13 +803,11 @@
       <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -860,13 +816,11 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>9.6</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -880,13 +834,11 @@
       <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -895,13 +847,11 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -915,13 +865,11 @@
       <c r="G14" t="n">
         <v>16</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -930,13 +878,11 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>7.300000000000001</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -950,13 +896,11 @@
       <c r="G15" t="n">
         <v>16</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -965,13 +909,11 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>8.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -985,13 +927,11 @@
       <c r="G16" t="n">
         <v>16</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1000,13 +940,11 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B083NK82QJ</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1020,13 +958,11 @@
       <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1088,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1100,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1112,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1124,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1136,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1160,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -475,11 +475,13 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -493,8 +495,10 @@
       <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
-        <v/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -506,11 +510,13 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -524,8 +530,10 @@
       <c r="G3" t="n">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
-        <v/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -537,11 +545,13 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>9.35</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -555,8 +565,10 @@
       <c r="G4" t="n">
         <v>17</v>
       </c>
-      <c r="H4" t="n">
-        <v/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -568,11 +580,13 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>7.899999999999999</v>
+        <v>7.849999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -586,8 +600,10 @@
       <c r="G5" t="n">
         <v>16</v>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -599,11 +615,13 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -617,8 +635,10 @@
       <c r="G6" t="n">
         <v>15</v>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -630,8 +650,10 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>7.449999999999999</v>
@@ -648,8 +670,10 @@
       <c r="G7" t="n">
         <v>16</v>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -661,11 +685,13 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -679,8 +705,10 @@
       <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -692,8 +720,10 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>8.949999999999999</v>
@@ -710,8 +740,10 @@
       <c r="G9" t="n">
         <v>17</v>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -723,8 +755,10 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>8.699999999999999</v>
@@ -741,8 +775,10 @@
       <c r="G10" t="n">
         <v>16</v>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -754,8 +790,10 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>7.5</v>
@@ -772,8 +810,10 @@
       <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -785,8 +825,10 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>8.949999999999999</v>
@@ -803,8 +845,10 @@
       <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -816,11 +860,13 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>8.899999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -834,8 +880,10 @@
       <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -847,11 +895,13 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -865,8 +915,10 @@
       <c r="G14" t="n">
         <v>16</v>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -878,11 +930,13 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>8.899999999999999</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -896,8 +950,10 @@
       <c r="G15" t="n">
         <v>16</v>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -909,11 +965,13 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>8.399999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -927,8 +985,10 @@
       <c r="G16" t="n">
         <v>16</v>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -940,8 +1000,10 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>8.199999999999999</v>
@@ -958,8 +1020,10 @@
       <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1088,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -500,8 +500,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -500,7 +500,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.449999999999999</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -535,7 +535,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -570,7 +570,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.849999999999999</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -605,7 +605,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -640,7 +640,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.449999999999999</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -675,7 +675,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -710,7 +710,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -745,7 +745,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -780,7 +780,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -815,7 +815,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -850,7 +850,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -885,7 +885,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.100000000000001</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -955,7 +955,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -990,7 +990,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1025,7 +1025,7 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>13</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
-      </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7</v>
-      </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>17</v>
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
         <v>8</v>
       </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -901,16 +901,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -980,10 +980,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1197 units</t>
+          <t>1232 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>13</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>6</v>
       </c>
       <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
         <v>8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>15</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>11</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>7</v>
       </c>
       <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>17</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>12</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>16</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>16</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>17</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>17</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
       <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>11</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>15</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>8</v>
       </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>11</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>16</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>11</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>7</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>9</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>12</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>17</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>6</v>
       </c>
       <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
         <v>8</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>11</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>16</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
       <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>10</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>15</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
       <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>15</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
-        <v>6</v>
-      </c>
       <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>14</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>H610I DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>113</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>115</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1232 units</t>
+          <t>1240 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9</v>
       </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -857,13 +857,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
         <v>7</v>
       </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
         <v>9</v>
       </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1240 units</t>
+          <t>1239 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1239 units</t>
+          <t>1268 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1268 units</t>
+          <t>1238 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083NK82QJ.xlsx
+++ b/Sufficient data/forecast_summary_B083NK82QJ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -860,10 +860,10 @@
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1060,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1238 units</t>
+          <t>1246 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
